--- a/data/Taxonomy/Euro_plants.xlsx
+++ b/data/Taxonomy/Euro_plants.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\North_east_NSW_fire_recovery\data\Taxonomy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\North_east_NSW_fire_recovery\data\Taxonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{725A7F9D-ABB1-4A05-9E46-B65B539CF379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11145" xr2:uid="{7A9ADA5F-46DC-4835-93B7-2DE48CC15EA3}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="Plants" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Pinus sylvestris</t>
   </si>
@@ -220,12 +219,471 @@
   </si>
   <si>
     <t>Species</t>
+  </si>
+  <si>
+    <t>Fraxinus excelsior</t>
+  </si>
+  <si>
+    <t>Acer campestre</t>
+  </si>
+  <si>
+    <t>Acer pseudoplatanus</t>
+  </si>
+  <si>
+    <t>Acer saccharinum</t>
+  </si>
+  <si>
+    <t>Aesculus hippocastanum</t>
+  </si>
+  <si>
+    <t>Carpinus betulus</t>
+  </si>
+  <si>
+    <t>Populus nigra</t>
+  </si>
+  <si>
+    <t>Prunus avium</t>
+  </si>
+  <si>
+    <t>Quercus robur</t>
+  </si>
+  <si>
+    <t>Robinia pseudoacacia</t>
+  </si>
+  <si>
+    <t>Tilia cordata</t>
+  </si>
+  <si>
+    <t>Tilia platyphyllos</t>
+  </si>
+  <si>
+    <t>Acer negundo</t>
+  </si>
+  <si>
+    <t>Betula pendula</t>
+  </si>
+  <si>
+    <t>Corylus colurna</t>
+  </si>
+  <si>
+    <t>Ginkgo biloba</t>
+  </si>
+  <si>
+    <t>Juglans regia</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>Sorbus aucuparia</t>
+  </si>
+  <si>
+    <t>Ailanthus altissima</t>
+  </si>
+  <si>
+    <t>Cedrus deodara</t>
+  </si>
+  <si>
+    <t>Fagus sylvatica</t>
+  </si>
+  <si>
+    <t>Fraxinus angustifolia</t>
+  </si>
+  <si>
+    <t>Fraxinus ornus</t>
+  </si>
+  <si>
+    <t>Gleditsia triacanthos</t>
+  </si>
+  <si>
+    <t>Liquidambar styraciflua</t>
+  </si>
+  <si>
+    <t>Liriodendron tulipifera</t>
+  </si>
+  <si>
+    <t>Populus alba</t>
+  </si>
+  <si>
+    <t>Prunus cerasifera</t>
+  </si>
+  <si>
+    <t>Chamaecyparis lawsoniana</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t>Picea abies</t>
+  </si>
+  <si>
+    <t>Picea pungens</t>
+  </si>
+  <si>
+    <t>Pyrus calleryana</t>
+  </si>
+  <si>
+    <t>Quercus rubra</t>
+  </si>
+  <si>
+    <t>Salix babylonica</t>
+  </si>
+  <si>
+    <t>Taxus baccata</t>
+  </si>
+  <si>
+    <t>Tilia tomentosa</t>
+  </si>
+  <si>
+    <t>Ulmus</t>
+  </si>
+  <si>
+    <t>Cercis siliquastrum</t>
+  </si>
+  <si>
+    <t>Ilex aquifolium</t>
+  </si>
+  <si>
+    <t>Juglans nigra</t>
+  </si>
+  <si>
+    <t>Koelreuteria paniculata</t>
+  </si>
+  <si>
+    <t>Morus alba</t>
+  </si>
+  <si>
+    <t>Prunus serrulata</t>
+  </si>
+  <si>
+    <t>Ulmus glabra</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Acer palmatum</t>
+  </si>
+  <si>
+    <t>Alnus cordata</t>
+  </si>
+  <si>
+    <t>Castanea sativa</t>
+  </si>
+  <si>
+    <t>Celtis australis</t>
+  </si>
+  <si>
+    <t>Fraxinus</t>
+  </si>
+  <si>
+    <t>Prunus domestica</t>
+  </si>
+  <si>
+    <t>Tilia</t>
+  </si>
+  <si>
+    <t>Cedrus atlantica</t>
+  </si>
+  <si>
+    <t>Paulownia tomentosa</t>
+  </si>
+  <si>
+    <t>Quercus</t>
+  </si>
+  <si>
+    <t>Quercus cerris</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>Crataegus laevigata</t>
+  </si>
+  <si>
+    <t>Cupressus arizonica</t>
+  </si>
+  <si>
+    <t>Cupressus leylandii</t>
+  </si>
+  <si>
+    <t>Cupressus sempervirens</t>
+  </si>
+  <si>
+    <t>Larix decidua</t>
+  </si>
+  <si>
+    <t>Platanus orientalis</t>
+  </si>
+  <si>
+    <t>Populus</t>
+  </si>
+  <si>
+    <t>Pseudotsuga menziesii</t>
+  </si>
+  <si>
+    <t>Pyrus communis</t>
+  </si>
+  <si>
+    <t>Quercus ilex</t>
+  </si>
+  <si>
+    <t>Salix caprea</t>
+  </si>
+  <si>
+    <t>Sambucus nigra</t>
+  </si>
+  <si>
+    <t>Sequoiadendron giganteum</t>
+  </si>
+  <si>
+    <t>Thuja plicata</t>
+  </si>
+  <si>
+    <t>Corylus avellana</t>
+  </si>
+  <si>
+    <t>Ficus carica</t>
+  </si>
+  <si>
+    <t>Fraxinus americana</t>
+  </si>
+  <si>
+    <t>Laburnum anagyroides</t>
+  </si>
+  <si>
+    <t>Morus nigra</t>
+  </si>
+  <si>
+    <t>Prunus padus</t>
+  </si>
+  <si>
+    <t>Pyrus</t>
+  </si>
+  <si>
+    <t>Sorbus</t>
+  </si>
+  <si>
+    <t>Taxodium distichum</t>
+  </si>
+  <si>
+    <t>Thuja occidentalis</t>
+  </si>
+  <si>
+    <t>Acer rubrum</t>
+  </si>
+  <si>
+    <t>Calocedrus decurrens</t>
+  </si>
+  <si>
+    <t>Cedrus libani</t>
+  </si>
+  <si>
+    <t>Malus sylvestris</t>
+  </si>
+  <si>
+    <t>Parrotia persica</t>
+  </si>
+  <si>
+    <t>Prunus armeniaca</t>
+  </si>
+  <si>
+    <t>Prunus dulcis</t>
+  </si>
+  <si>
+    <t>Quercus palustris</t>
+  </si>
+  <si>
+    <t>Salix</t>
+  </si>
+  <si>
+    <t>Sequoia sempervirens</t>
+  </si>
+  <si>
+    <t>Abies pinsapo</t>
+  </si>
+  <si>
+    <t>Acer tataricum</t>
+  </si>
+  <si>
+    <t>Albizia julibrissin</t>
+  </si>
+  <si>
+    <t>Betula utilis</t>
+  </si>
+  <si>
+    <t>Celtis occidentalis</t>
+  </si>
+  <si>
+    <t>Crataegus</t>
+  </si>
+  <si>
+    <t>Elaeagnus angustifolia</t>
+  </si>
+  <si>
+    <t>Pinus</t>
+  </si>
+  <si>
+    <t>Pinus pinea</t>
+  </si>
+  <si>
+    <t>Acacia dealbata</t>
+  </si>
+  <si>
+    <t>Acer cappadocicum</t>
+  </si>
+  <si>
+    <t>Arbutus unedo</t>
+  </si>
+  <si>
+    <t>Betula papyrifera</t>
+  </si>
+  <si>
+    <t>Cercidiphyllum japonicum</t>
+  </si>
+  <si>
+    <t>Cydonia oblonga</t>
+  </si>
+  <si>
+    <t>Hibiscus syriacus</t>
+  </si>
+  <si>
+    <t>Lagerstroemia indica</t>
+  </si>
+  <si>
+    <t>Maclura pomifera</t>
+  </si>
+  <si>
+    <t>Metasequoia glyptostroboides</t>
+  </si>
+  <si>
+    <t>Olea europaea</t>
+  </si>
+  <si>
+    <t>Platycladus orientalis</t>
+  </si>
+  <si>
+    <t>Populus canadensis</t>
+  </si>
+  <si>
+    <t>Populus simonii</t>
+  </si>
+  <si>
+    <t>Prunus laurocerasus</t>
+  </si>
+  <si>
+    <t>Prunus persica</t>
+  </si>
+  <si>
+    <t>Prunus subhirtella</t>
+  </si>
+  <si>
+    <t>Zelkova serrata</t>
+  </si>
+  <si>
+    <t>Acer monspessulanum</t>
+  </si>
+  <si>
+    <t>Aesculus</t>
+  </si>
+  <si>
+    <t>Cupressus macrocarpa</t>
+  </si>
+  <si>
+    <t>Eriobotrya japonica</t>
+  </si>
+  <si>
+    <t>Fraxinus pennsylvanica</t>
+  </si>
+  <si>
+    <t>Picea</t>
+  </si>
+  <si>
+    <t>Pinus pinaster</t>
+  </si>
+  <si>
+    <t>Quercus suber</t>
+  </si>
+  <si>
+    <t>Thuja</t>
+  </si>
+  <si>
+    <t>Acer freemanii</t>
+  </si>
+  <si>
+    <t>Diospyros kaki</t>
+  </si>
+  <si>
+    <t>Larix</t>
+  </si>
+  <si>
+    <t>Melia azedarach</t>
+  </si>
+  <si>
+    <t>Platanus</t>
+  </si>
+  <si>
+    <t>Populus deltoides</t>
+  </si>
+  <si>
+    <t>Acer buergerianum</t>
+  </si>
+  <si>
+    <t>Ligustrum japonicum</t>
+  </si>
+  <si>
+    <t>Malus purpurea</t>
+  </si>
+  <si>
+    <t>Morus</t>
+  </si>
+  <si>
+    <t>Pinus halepensis</t>
+  </si>
+  <si>
+    <t>Pinus mugo</t>
+  </si>
+  <si>
+    <t>Punica granatum</t>
+  </si>
+  <si>
+    <t>Chamaecyparis</t>
+  </si>
+  <si>
+    <t>Cupressus</t>
+  </si>
+  <si>
+    <t>Prunus lusitanica</t>
+  </si>
+  <si>
+    <t>Tamarix gallica</t>
+  </si>
+  <si>
+    <t>Pyrus salicifolia</t>
+  </si>
+  <si>
+    <t>Robinia hispida</t>
+  </si>
+  <si>
+    <t>Celtis sinensis</t>
+  </si>
+  <si>
+    <t>Toona sinensis</t>
+  </si>
+  <si>
+    <t>Chamaecyparis thyoides</t>
+  </si>
+  <si>
+    <t>Pinus thunbergii</t>
+  </si>
+  <si>
+    <t>Mixed broadleaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC9D59B-D406-4C17-8A4A-0C98F984678E}">
-  <dimension ref="A1:A65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,6 +1365,771 @@
         <v>63</v>
       </c>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
